--- a/biology/Histoire de la zoologie et de la botanique/John_Douglas_Lynch/John_Douglas_Lynch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Douglas_Lynch/John_Douglas_Lynch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Douglas Lynch est un herpétologiste américain né le 30 juillet 1942.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a travaillé trente ans à l'université du Nebraska-Lincoln, avant de s'installer à sa retraite en Colombie[1]. Spécialiste des amphibiens, il a notamment décrit de nombreuses espèces d’Eleutherodactylus (transféré dans Pristimantis depuis) dans les années 1965-2003 avec William Edward Duellman (1930-).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a travaillé trente ans à l'université du Nebraska-Lincoln, avant de s'installer à sa retraite en Colombie. Spécialiste des amphibiens, il a notamment décrit de nombreuses espèces d’Eleutherodactylus (transféré dans Pristimantis depuis) dans les années 1965-2003 avec William Edward Duellman (1930-).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anolis lynchi Miyata, 1985
 Atelopus lynchi Cannatella, 1981
@@ -582,7 +598,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Andinophryne atelopoides
